--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,468 +512,638 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0879</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4814</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>008618</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>永赢医药健康股票A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>85.16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>008619</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>永赢医药健康股票C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>85.16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>010434</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>红土创新医疗保健股票</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>50.44</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>29.82</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>920002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>920922</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>96.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501077</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>75.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>51.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005877</t>
+          <t>001216</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合C</t>
+          <t>易方达新收益灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>56.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006013</t>
+          <t>501077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合A</t>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006014</t>
+          <t>160607</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合C</t>
+          <t>鹏华价值优势混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001216</t>
+          <t>001217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达新收益灵活配置混合 - A</t>
+          <t>易方达新收益灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.79</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001217</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达新收益灵活配置混合 - C</t>
+          <t>中金精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>005726</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国泰价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160607</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华价值优势混合(LOF)</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>006976</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>鹏华核心优势混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008619</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>永赢医药健康股票C</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>89.77</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>8.79</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005726</t>
+          <t>006013</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合A</t>
+          <t>易方达鑫转招利混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011324</t>
+          <t>008619</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合C</t>
+          <t>永赢医药健康股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>920922</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>中金精选股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金精选股票A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>920922</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中金精选股票C</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>005877</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>易方达鑫转增利混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>006014</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
+          <t>易方达鑫转招利混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>011324</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
+          <t>国泰价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3158,4 +3159,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3709,4 +3710,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3718,7 +3719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,17 +3730,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3749,14 +3770,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.67</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3765,14 +3808,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.82</v>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3781,14 +3846,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.99</v>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3797,13 +3884,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4155,7 +4156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,17 +4167,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4186,14 +4207,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.09</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4202,14 +4245,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.67</v>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4218,14 +4283,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.82</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4234,14 +4321,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.99</v>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4250,13 +4359,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4554,7 +4555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4565,17 +4566,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4585,14 +4606,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.87</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4601,14 +4644,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.09</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4617,14 +4682,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.67</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4633,14 +4720,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.82</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4649,14 +4758,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.99</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4665,13 +4796,1095 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>10.88</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>1.87</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.67</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>15.82</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>17.99</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.18</v>
       </c>
     </row>
@@ -600,6 +617,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1795,7 +3464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,7 +3862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2629,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3179,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4299,7 +5968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5191,7 +6860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002250-联化科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>12.82</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>10.88</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.67</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>15.82</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>17.99</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0879</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4814</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,1808 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7856</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +4789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3464,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3862,7 +6383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4298,7 +6819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4848,7 +7369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5968,7 +8489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6858,706 +9379,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>64.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9037</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1021</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0879</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7997</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5680</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>920002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4814</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3463</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3389</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2399</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>920922</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>